--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>Results_On_03/13/2015 1:56:26 PM</t>
+  </si>
+  <si>
+    <t>Actual_03/13/2015 2:01:46 PM</t>
+  </si>
+  <si>
+    <t>Results_On_03/13/2015 2:01:47 PM</t>
+  </si>
+  <si>
+    <t>Actual_03/13/2015 2:11:53 PM</t>
+  </si>
+  <si>
+    <t>Results_On_03/13/2015 2:11:53 PM</t>
+  </si>
+  <si>
+    <t>Actual_03/13/2015 3:04:29 PM</t>
+  </si>
+  <si>
+    <t>Results_On_03/13/2015 3:04:29 PM</t>
   </si>
 </sst>
 </file>
@@ -230,7 +248,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,6 +281,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -312,8 +336,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="13">
-        <v>29</v>
+      <c r="D1" t="s" s="19">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14640" windowHeight="6345" tabRatio="582" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13380" windowHeight="6345" tabRatio="582" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="13" r:id="rId1"/>
     <sheet name="OperationalView_ProjectView" sheetId="17" r:id="rId2"/>
     <sheet name="OperationalView_ReportView" sheetId="14" r:id="rId3"/>
+    <sheet name="Planned_Outage_Page_test" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:D19"/>
+  <oleSize ref="A1:F19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -28,9 +29,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>ExpectedResult</t>
   </si>
   <si>
@@ -301,7 +299,25 @@
     <t>Result_Mon Mar 16 18:55:05 IST 2015</t>
   </si>
   <si>
-    <t>Result_Mon Mar 23 17:05:10 IST 2015</t>
+    <t>Record Updated Successfully</t>
+  </si>
+  <si>
+    <t>Record Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Result_Fri Mar 27 12:57:51 IST 2015</t>
+  </si>
+  <si>
+    <t>Result_Fri Mar 27 14:21:09 IST 2015</t>
+  </si>
+  <si>
+    <t>Result_Fri Mar 27 14:26:39 IST 2015</t>
+  </si>
+  <si>
+    <t>Result_Fri Mar 27 14:31:40 IST 2015</t>
+  </si>
+  <si>
+    <t>Result_Fri Mar 27 14:45:54 IST 2015</t>
   </si>
 </sst>
 </file>
@@ -309,18 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,22 +396,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -706,7 +711,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,88 +723,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,165 +841,148 @@
     <col min="2" max="2" customWidth="true" width="43.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:39" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -989,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,819 +1005,876 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
       <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>